--- a/WeeklyMidi.xlsx
+++ b/WeeklyMidi.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44415A-3FD5-4009-B074-FE2916CB21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D99A6-0379-4435-96C7-5099B6161545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -75,106 +84,130 @@
     <t>Dessert 2</t>
   </si>
   <si>
-    <t>Sauté de dinde BBC façon bucco</t>
-  </si>
-  <si>
-    <t>Blé à la provençale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trop de légumes au romanesco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feuilleté thon tomate </t>
-  </si>
-  <si>
-    <t>Guacamole fait maison</t>
-  </si>
-  <si>
-    <t>Salade de pâtes bio au surimi</t>
-  </si>
-  <si>
-    <t>Rougail saucisse</t>
-  </si>
-  <si>
-    <t>Dos de colin</t>
-  </si>
-  <si>
-    <t>Riz bio au curry</t>
-  </si>
-  <si>
     <t>Duo de haricots</t>
   </si>
   <si>
-    <t>Tartelette meringuée</t>
-  </si>
-  <si>
     <t>Entree 4</t>
   </si>
   <si>
-    <t>Demi pamplemousse</t>
-  </si>
-  <si>
     <t>Melon</t>
   </si>
   <si>
-    <t>Houmous de petits pois</t>
-  </si>
-  <si>
-    <t>Salade de tomate</t>
-  </si>
-  <si>
-    <t>Sauté de porc BBC à l'ancienne</t>
-  </si>
-  <si>
-    <t>Œuf bio à la florentine</t>
-  </si>
-  <si>
-    <t>Épinard béchamel</t>
-  </si>
-  <si>
-    <t>Boulgour bio aux petits légumes</t>
-  </si>
-  <si>
     <t>Pastèque</t>
   </si>
   <si>
-    <t>Taboulé</t>
-  </si>
-  <si>
-    <t>Museau vinaigrette</t>
-  </si>
-  <si>
-    <t>Rôti de bœuf</t>
-  </si>
-  <si>
     <t>Filet de poisson frais</t>
   </si>
   <si>
-    <t>Couscous bio</t>
-  </si>
-  <si>
-    <t>Courgettes sautés</t>
-  </si>
-  <si>
-    <t>Feuilleté abricot</t>
-  </si>
-  <si>
-    <t>Asperge/tomate</t>
-  </si>
-  <si>
-    <t>Cake jambon fromage</t>
-  </si>
-  <si>
-    <t>Pavé de dinde</t>
-  </si>
-  <si>
-    <t>Steak haché (bœuf)</t>
-  </si>
-  <si>
-    <t>Torsades bio</t>
-  </si>
-  <si>
-    <t>Carottes bio vichy</t>
+    <t>16/09</t>
+  </si>
+  <si>
+    <t>17/09</t>
+  </si>
+  <si>
+    <t>18/09</t>
+  </si>
+  <si>
+    <t>19/09</t>
+  </si>
+  <si>
+    <t>20/09</t>
+  </si>
+  <si>
+    <t>Pamplemousse</t>
+  </si>
+  <si>
+    <t>Salade Nantaise</t>
+  </si>
+  <si>
+    <t>Concombre à la crème</t>
+  </si>
+  <si>
+    <t>Saucisse grillée BBC</t>
+  </si>
+  <si>
+    <t>Filet de poisson pané</t>
+  </si>
+  <si>
+    <t>Pommes vapeur</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Carottes râpées</t>
+  </si>
+  <si>
+    <t>Salade riz au thon</t>
+  </si>
+  <si>
+    <t>Sauté d'agneau au curry</t>
+  </si>
+  <si>
+    <t>Escalope de veau hachée</t>
+  </si>
+  <si>
+    <t>Coquillettes</t>
+  </si>
+  <si>
+    <t>Brocolis</t>
+  </si>
+  <si>
+    <t>Crumble pomme rhubarbe</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Salade antillaise</t>
+  </si>
+  <si>
+    <t>Sauté de dinde BBC</t>
+  </si>
+  <si>
+    <t>Gratin de courgette</t>
+  </si>
+  <si>
+    <t>Purée</t>
+  </si>
+  <si>
+    <t>Salade au thon mimosa</t>
+  </si>
+  <si>
+    <t>Terrine de campagne</t>
+  </si>
+  <si>
+    <t>Rôti de porc fumé</t>
+  </si>
+  <si>
+    <t>Galette patate douce lentille</t>
+  </si>
+  <si>
+    <t>Couscous</t>
+  </si>
+  <si>
+    <t>Poêlée de légumes verts</t>
+  </si>
+  <si>
+    <t>Tiramisu maison</t>
+  </si>
+  <si>
+    <t>Tomate sauce tartare</t>
+  </si>
+  <si>
+    <t>Salade de cervelas</t>
+  </si>
+  <si>
+    <t>Bœuf bourguignon</t>
+  </si>
+  <si>
+    <t>Riz pilaf</t>
+  </si>
+  <si>
+    <t>Carottes aux épices</t>
+  </si>
+  <si>
+    <t>Compote de pommes</t>
   </si>
 </sst>
 </file>
@@ -228,8 +261,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +567,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -592,148 +625,172 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>45544</v>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
+      <c r="K2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>45545</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>45546</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>45547</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>45548</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/WeeklyMidi.xlsx
+++ b/WeeklyMidi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D99A6-0379-4435-96C7-5099B6161545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F85F5-9611-4770-AF3D-AA873F18931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -84,130 +84,112 @@
     <t>Dessert 2</t>
   </si>
   <si>
-    <t>Duo de haricots</t>
-  </si>
-  <si>
     <t>Entree 4</t>
   </si>
   <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>Pastèque</t>
-  </si>
-  <si>
-    <t>Filet de poisson frais</t>
-  </si>
-  <si>
-    <t>16/09</t>
-  </si>
-  <si>
-    <t>17/09</t>
-  </si>
-  <si>
-    <t>18/09</t>
-  </si>
-  <si>
-    <t>19/09</t>
-  </si>
-  <si>
-    <t>20/09</t>
-  </si>
-  <si>
     <t>Pamplemousse</t>
   </si>
   <si>
-    <t>Salade Nantaise</t>
-  </si>
-  <si>
-    <t>Concombre à la crème</t>
-  </si>
-  <si>
-    <t>Saucisse grillée BBC</t>
-  </si>
-  <si>
-    <t>Filet de poisson pané</t>
-  </si>
-  <si>
-    <t>Pommes vapeur</t>
-  </si>
-  <si>
-    <t>Donut</t>
-  </si>
-  <si>
-    <t>Carottes râpées</t>
-  </si>
-  <si>
-    <t>Salade riz au thon</t>
-  </si>
-  <si>
-    <t>Sauté d'agneau au curry</t>
-  </si>
-  <si>
-    <t>Escalope de veau hachée</t>
-  </si>
-  <si>
-    <t>Coquillettes</t>
-  </si>
-  <si>
-    <t>Brocolis</t>
-  </si>
-  <si>
-    <t>Crumble pomme rhubarbe</t>
-  </si>
-  <si>
-    <t>Pizza</t>
+    <t>Couscous bio</t>
+  </si>
+  <si>
+    <t>14/10</t>
+  </si>
+  <si>
+    <t>15/10</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>17/10</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <t>Tomate mozarella</t>
+  </si>
+  <si>
+    <t>Salade verte parisienne</t>
+  </si>
+  <si>
+    <t>Feuilleté montagnard / VG</t>
+  </si>
+  <si>
+    <t>Pommes bio vapeur</t>
+  </si>
+  <si>
+    <t>Filet de poisson pané MSC</t>
+  </si>
+  <si>
+    <t>Bœuf pot au feu / VG</t>
+  </si>
+  <si>
+    <t>Légumes au pot</t>
+  </si>
+  <si>
+    <t>Tartelette au citron</t>
+  </si>
+  <si>
+    <t>Chicken salade</t>
   </si>
   <si>
     <t>Salade antillaise</t>
   </si>
   <si>
-    <t>Sauté de dinde BBC</t>
-  </si>
-  <si>
-    <t>Gratin de courgette</t>
-  </si>
-  <si>
-    <t>Purée</t>
-  </si>
-  <si>
-    <t>Salade au thon mimosa</t>
-  </si>
-  <si>
-    <t>Terrine de campagne</t>
-  </si>
-  <si>
-    <t>Rôti de porc fumé</t>
-  </si>
-  <si>
-    <t>Galette patate douce lentille</t>
-  </si>
-  <si>
-    <t>Couscous</t>
-  </si>
-  <si>
-    <t>Poêlée de légumes verts</t>
-  </si>
-  <si>
-    <t>Tiramisu maison</t>
-  </si>
-  <si>
-    <t>Tomate sauce tartare</t>
-  </si>
-  <si>
-    <t>Salade de cervelas</t>
-  </si>
-  <si>
-    <t>Bœuf bourguignon</t>
-  </si>
-  <si>
-    <t>Riz pilaf</t>
-  </si>
-  <si>
-    <t>Carottes aux épices</t>
-  </si>
-  <si>
-    <t>Compote de pommes</t>
+    <t>Soupe de légume maison</t>
+  </si>
+  <si>
+    <t>Sauté de lapin à la moutarde</t>
+  </si>
+  <si>
+    <t>Travers de porc braisé</t>
+  </si>
+  <si>
+    <t>Poêlée rustique</t>
+  </si>
+  <si>
+    <t>Salade d'endive aux noix</t>
+  </si>
+  <si>
+    <t>Crumble poireaux jambon / VG</t>
+  </si>
+  <si>
+    <t>Salade athena</t>
+  </si>
+  <si>
+    <t>Lentilles bio</t>
+  </si>
+  <si>
+    <t>Pavé de dinde tandoori</t>
+  </si>
+  <si>
+    <t>Carottes à la crème</t>
+  </si>
+  <si>
+    <t>Panna cotta fruits rouges</t>
+  </si>
+  <si>
+    <t>Betterave bio mimosa</t>
+  </si>
+  <si>
+    <t>Salade exotique</t>
+  </si>
+  <si>
+    <t>Salade drugstore / VG</t>
+  </si>
+  <si>
+    <t>Boulettes de bœuf champignons</t>
+  </si>
+  <si>
+    <t>Spaghettis</t>
+  </si>
+  <si>
+    <t>Boulettes pois chiches bio</t>
+  </si>
+  <si>
+    <t>Épinard béchamel</t>
   </si>
 </sst>
 </file>
@@ -580,7 +562,7 @@
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -626,34 +608,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -661,34 +619,34 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -696,31 +654,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,34 +686,34 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -763,34 +721,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/WeeklyMidi.xlsx
+++ b/WeeklyMidi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.boga\Documents\__Insta-Joliot__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F85F5-9611-4770-AF3D-AA873F18931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8186476-003E-4365-97E6-4E111FF35441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -90,106 +90,109 @@
     <t>Pamplemousse</t>
   </si>
   <si>
-    <t>Couscous bio</t>
-  </si>
-  <si>
-    <t>14/10</t>
-  </si>
-  <si>
-    <t>15/10</t>
-  </si>
-  <si>
-    <t>16/10</t>
-  </si>
-  <si>
-    <t>17/10</t>
-  </si>
-  <si>
-    <t>18/10</t>
-  </si>
-  <si>
-    <t>Tomate mozarella</t>
-  </si>
-  <si>
-    <t>Salade verte parisienne</t>
-  </si>
-  <si>
-    <t>Feuilleté montagnard / VG</t>
-  </si>
-  <si>
-    <t>Pommes bio vapeur</t>
-  </si>
-  <si>
-    <t>Filet de poisson pané MSC</t>
-  </si>
-  <si>
-    <t>Bœuf pot au feu / VG</t>
-  </si>
-  <si>
-    <t>Légumes au pot</t>
-  </si>
-  <si>
-    <t>Tartelette au citron</t>
-  </si>
-  <si>
-    <t>Chicken salade</t>
-  </si>
-  <si>
-    <t>Salade antillaise</t>
-  </si>
-  <si>
-    <t>Soupe de légume maison</t>
-  </si>
-  <si>
-    <t>Sauté de lapin à la moutarde</t>
-  </si>
-  <si>
-    <t>Travers de porc braisé</t>
-  </si>
-  <si>
-    <t>Poêlée rustique</t>
-  </si>
-  <si>
-    <t>Salade d'endive aux noix</t>
-  </si>
-  <si>
-    <t>Crumble poireaux jambon / VG</t>
-  </si>
-  <si>
-    <t>Salade athena</t>
-  </si>
-  <si>
-    <t>Lentilles bio</t>
-  </si>
-  <si>
-    <t>Pavé de dinde tandoori</t>
-  </si>
-  <si>
-    <t>Carottes à la crème</t>
-  </si>
-  <si>
-    <t>Panna cotta fruits rouges</t>
-  </si>
-  <si>
-    <t>Betterave bio mimosa</t>
-  </si>
-  <si>
-    <t>Salade exotique</t>
-  </si>
-  <si>
-    <t>Salade drugstore / VG</t>
-  </si>
-  <si>
-    <t>Boulettes de bœuf champignons</t>
-  </si>
-  <si>
-    <t>Spaghettis</t>
-  </si>
-  <si>
-    <t>Boulettes pois chiches bio</t>
-  </si>
-  <si>
-    <t>Épinard béchamel</t>
+    <t>Betterave rouge bio</t>
+  </si>
+  <si>
+    <t>Carottes bio râpées citron</t>
+  </si>
+  <si>
+    <t>Rillettes de porc</t>
+  </si>
+  <si>
+    <t>Frites</t>
+  </si>
+  <si>
+    <t>Dos de colin</t>
+  </si>
+  <si>
+    <t>Purée</t>
+  </si>
+  <si>
+    <t>Dos de cabillaud</t>
+  </si>
+  <si>
+    <t>Salade de coleslaw rouge</t>
+  </si>
+  <si>
+    <t>Terrine de campagne sel de Noirmoutier</t>
+  </si>
+  <si>
+    <t>Tartelette alsacienne</t>
+  </si>
+  <si>
+    <t>Riz bio pilaf</t>
+  </si>
+  <si>
+    <t>Blanquette de haricot blanc</t>
+  </si>
+  <si>
+    <t>Endive braisée</t>
+  </si>
+  <si>
+    <t>Paupiette de poulet / Filet de poisson</t>
+  </si>
+  <si>
+    <t>Feuilleté Belle-Hélène</t>
+  </si>
+  <si>
+    <t>Salade endive fèves et lard</t>
+  </si>
+  <si>
+    <t>Velouté Dubarry maison</t>
+  </si>
+  <si>
+    <t>Tartiflette maison / VG</t>
+  </si>
+  <si>
+    <t>Carottes bio vichy</t>
+  </si>
+  <si>
+    <t>Salade de tomate</t>
+  </si>
+  <si>
+    <t>Salade piémontaise</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Escalope de dinde BBC</t>
+  </si>
+  <si>
+    <t>Macaronis bio</t>
+  </si>
+  <si>
+    <t>Galette patate douce lentille</t>
+  </si>
+  <si>
+    <t>Petits pois</t>
+  </si>
+  <si>
+    <t>Cake aux pommes</t>
+  </si>
+  <si>
+    <t>Tortis tomate et amandes</t>
+  </si>
+  <si>
+    <t>Escalope de veau hachée</t>
+  </si>
+  <si>
+    <t>Ratatouille / Galettes haricots rouges</t>
+  </si>
+  <si>
+    <t>18/11</t>
+  </si>
+  <si>
+    <t>19/11</t>
+  </si>
+  <si>
+    <t>20/11</t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>22/11</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -548,15 +571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="6" width="39.140625" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
@@ -608,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -619,34 +642,34 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -654,16 +677,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -672,13 +695,13 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -686,22 +709,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -721,31 +744,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
